--- a/_files/requirements/requirements_detailing_references/ID-Authentication/Sprint 12/Consolidated error messages V2.7.xlsx
+++ b/_files/requirements/requirements_detailing_references/ID-Authentication/Sprint 12/Consolidated error messages V2.7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\requirements_detailing_references\ID-Authentication\Sprint 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52798882-0F9A-4A0D-90D4-8366DA625959}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF742AE1-0292-462B-968C-957DA732CD4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDA" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="364">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -1367,9 +1367,6 @@
     <t>IDA-MLC-018</t>
   </si>
   <si>
-    <t>"%Data not available in database"</t>
-  </si>
-  <si>
     <t>IDR-IDC-012</t>
   </si>
   <si>
@@ -1390,6 +1387,27 @@
   <si>
     <t xml:space="preserve">Failed to process Id Object using kernel Id Object validator
 </t>
+  </si>
+  <si>
+    <t>IDA-MLC-019</t>
+  </si>
+  <si>
+    <t>"%s Auth Type is Locked for the UIN"</t>
+  </si>
+  <si>
+    <t>"%s Data not available in database"</t>
+  </si>
+  <si>
+    <t>Auth Type is Locked</t>
+  </si>
+  <si>
+    <t>IDA-MLC-020</t>
+  </si>
+  <si>
+    <t>Encryption of Data Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Unable to encrypt data” </t>
   </si>
 </sst>
 </file>
@@ -2149,25 +2167,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.7265625" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="19.7109375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.7109375" style="10" collapsed="1"/>
-    <col min="7" max="7" width="22.7109375" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="19.7109375" style="10"/>
+    <col min="1" max="1" width="4.7265625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="48.26953125" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="19.7265625" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.7265625" style="10" collapsed="1"/>
+    <col min="7" max="7" width="22.7265625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="19.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2217,7 +2235,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2241,7 +2259,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2289,7 +2307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="26" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="26" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2341,7 +2359,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2361,7 +2379,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2381,7 +2399,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2449,7 +2467,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -2601,7 +2619,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2649,7 +2667,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -2713,7 +2731,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>28</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>33</v>
       </c>
@@ -2781,7 +2799,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>34</v>
       </c>
@@ -2801,7 +2819,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>35</v>
       </c>
@@ -2821,7 +2839,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>36</v>
       </c>
@@ -2843,7 +2861,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>37</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>38</v>
       </c>
@@ -2883,7 +2901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>39</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>40</v>
       </c>
@@ -2923,7 +2941,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>46</v>
       </c>
@@ -3021,7 +3039,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>47</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>48</v>
       </c>
@@ -3065,7 +3083,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="22" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="22" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>49</v>
       </c>
@@ -3085,7 +3103,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="22" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="22" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>50</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>51</v>
       </c>
@@ -3125,7 +3143,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>52</v>
       </c>
@@ -3149,7 +3167,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>53</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="28" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>54</v>
       </c>
@@ -3199,7 +3217,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>55</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>56</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>57</v>
       </c>
@@ -3259,7 +3277,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>58</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>59</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>60</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>61</v>
       </c>
@@ -3339,7 +3357,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>62</v>
       </c>
@@ -3359,7 +3377,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>63</v>
       </c>
@@ -3379,7 +3397,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>64</v>
       </c>
@@ -3399,7 +3417,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>63</v>
       </c>
@@ -3419,7 +3437,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>64</v>
       </c>
@@ -3439,7 +3457,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>65</v>
       </c>
@@ -3459,7 +3477,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>66</v>
       </c>
@@ -3479,7 +3497,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>22</v>
       </c>
@@ -3503,7 +3521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>26</v>
       </c>
@@ -3523,7 +3541,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>66</v>
       </c>
@@ -3543,7 +3561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>67</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>68</v>
       </c>
@@ -3583,7 +3601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>69</v>
       </c>
@@ -3603,7 +3621,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="63" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>70</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>71</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -3682,7 +3700,7 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>72</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>74</v>
       </c>
@@ -3710,7 +3728,7 @@
         <v>347</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30"/>
@@ -3719,6 +3737,42 @@
       </c>
       <c r="G73" s="30"/>
       <c r="H73" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3734,16 +3788,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36" defaultRowHeight="32.25" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36" defaultRowHeight="32.25" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>149</v>
       </c>
@@ -3757,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3771,7 +3825,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -3785,7 +3839,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -3796,10 +3850,10 @@
         <v>127</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -3810,10 +3864,10 @@
         <v>128</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -3827,7 +3881,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -3841,7 +3895,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -3855,7 +3909,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -3869,7 +3923,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="32">
         <v>9</v>
       </c>
@@ -3883,7 +3937,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -3897,7 +3951,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="32">
         <v>11</v>
       </c>
@@ -3911,7 +3965,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="32">
         <v>12</v>
       </c>
@@ -3925,7 +3979,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="32">
         <v>13</v>
       </c>
@@ -3939,7 +3993,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="32">
         <v>14</v>
       </c>
@@ -3953,7 +4007,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="32">
         <v>15</v>
       </c>
@@ -3967,7 +4021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="32">
         <v>16</v>
       </c>
@@ -3981,7 +4035,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16384" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="32">
         <v>17</v>
       </c>
@@ -3995,7 +4049,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32">
         <v>18</v>
       </c>
@@ -4009,7 +4063,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -4023,7 +4077,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="32">
         <v>20</v>
       </c>
@@ -4034,10 +4088,10 @@
         <v>182</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="32">
         <v>21</v>
       </c>
@@ -4051,12 +4105,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>283</v>
@@ -20445,7 +20499,7 @@
       <c r="XFC23" s="4"/>
       <c r="XFD23" s="4"/>
     </row>
-    <row r="24" spans="1:16384" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32">
         <v>23</v>
       </c>
@@ -36837,7 +36891,7 @@
       <c r="XFC24" s="4"/>
       <c r="XFD24" s="4"/>
     </row>
-    <row r="25" spans="1:16384" ht="47.25" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" ht="45" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32">
         <v>24</v>
       </c>
@@ -36851,7 +36905,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" s="39" customFormat="1" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="39" customFormat="1" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38">
         <v>26</v>
       </c>
@@ -36865,7 +36919,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" ht="47.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" ht="47.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32">
         <v>27</v>
       </c>
@@ -36879,7 +36933,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38">
         <v>28</v>
       </c>
@@ -36893,7 +36947,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" s="39" customFormat="1" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" s="39" customFormat="1" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38">
         <v>29</v>
       </c>
@@ -36907,12 +36961,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:16384" ht="32.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" ht="32.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32">
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>303</v>
@@ -36921,7 +36975,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="32">
         <v>31</v>
       </c>
@@ -36935,7 +36989,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="32">
         <v>32</v>
       </c>
@@ -36949,7 +37003,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="32"/>
       <c r="B33" s="37" t="s">
         <v>150</v>
@@ -36958,15 +37012,15 @@
         <v>150</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="43" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>273</v>
@@ -36987,15 +37041,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="10" customWidth="1"/>
     <col min="2" max="2" width="34" style="10"/>
-    <col min="3" max="3" width="46.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" style="10" customWidth="1"/>
     <col min="4" max="16384" width="34" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>149</v>
       </c>
@@ -37009,7 +37063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -37023,7 +37077,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -37037,7 +37091,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -37051,7 +37105,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -37065,7 +37119,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -37079,7 +37133,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -37093,7 +37147,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
